--- a/Week7. Final_requirments/Assignment7.xlsx
+++ b/Week7. Final_requirments/Assignment7.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="46">
   <si>
     <t>#</t>
   </si>
@@ -113,12 +113,51 @@
   </si>
   <si>
     <t>Бидзиля, Руданов</t>
+  </si>
+  <si>
+    <t>Главная страница</t>
+  </si>
+  <si>
+    <t>Страница регистрации</t>
+  </si>
+  <si>
+    <t>Страница авторизации</t>
+  </si>
+  <si>
+    <t>Личный кабинет</t>
+  </si>
+  <si>
+    <t>Страница личных данных</t>
+  </si>
+  <si>
+    <t>Список разделов</t>
+  </si>
+  <si>
+    <t>Страница выбранного раздела</t>
+  </si>
+  <si>
+    <t>Основное меню</t>
+  </si>
+  <si>
+    <t>Бурамбекова</t>
+  </si>
+  <si>
+    <t>Асеев</t>
+  </si>
+  <si>
+    <t>Заварзин</t>
+  </si>
+  <si>
+    <t>Лазарев</t>
+  </si>
+  <si>
+    <t>Петров</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="dd/mm/yy\ h:mm;@"/>
   </numFmts>
@@ -469,7 +508,7 @@
   <dimension ref="A1:H20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -688,41 +727,89 @@
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="4"/>
+      <c r="B13" t="s">
+        <v>33</v>
+      </c>
+      <c r="C13" t="s">
+        <v>41</v>
+      </c>
       <c r="E13" s="3"/>
       <c r="H13" s="5"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="4"/>
+      <c r="B14" t="s">
+        <v>34</v>
+      </c>
+      <c r="C14" t="s">
+        <v>41</v>
+      </c>
       <c r="E14" s="3"/>
       <c r="H14" s="5"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="4"/>
+      <c r="B15" t="s">
+        <v>35</v>
+      </c>
+      <c r="C15" t="s">
+        <v>45</v>
+      </c>
       <c r="E15" s="3"/>
       <c r="H15" s="5"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="4"/>
+      <c r="B16" t="s">
+        <v>36</v>
+      </c>
+      <c r="C16" t="s">
+        <v>42</v>
+      </c>
       <c r="E16" s="3"/>
       <c r="H16" s="5"/>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="4"/>
+      <c r="B17" t="s">
+        <v>37</v>
+      </c>
+      <c r="C17" t="s">
+        <v>44</v>
+      </c>
       <c r="E17" s="3"/>
       <c r="H17" s="5"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="4"/>
+      <c r="B18" t="s">
+        <v>38</v>
+      </c>
+      <c r="C18" t="s">
+        <v>43</v>
+      </c>
       <c r="E18" s="3"/>
       <c r="H18" s="5"/>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="4"/>
+      <c r="B19" t="s">
+        <v>39</v>
+      </c>
+      <c r="C19" t="s">
+        <v>45</v>
+      </c>
       <c r="E19" s="3"/>
       <c r="H19" s="5"/>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="4"/>
+      <c r="B20" t="s">
+        <v>40</v>
+      </c>
+      <c r="C20" t="s">
+        <v>44</v>
+      </c>
       <c r="E20" s="3"/>
       <c r="H20" s="5"/>
     </row>

--- a/Week7. Final_requirments/Assignment7.xlsx
+++ b/Week7. Final_requirments/Assignment7.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="50">
   <si>
     <t>#</t>
   </si>
@@ -152,12 +152,24 @@
   </si>
   <si>
     <t>Петров</t>
+  </si>
+  <si>
+    <t>Рецензирование прототипов страниц</t>
+  </si>
+  <si>
+    <t>Бидзиля, Сорокин</t>
+  </si>
+  <si>
+    <t>Продлено до 18.10.15 23:59</t>
+  </si>
+  <si>
+    <t>Рецензирование материалов второй подгруппы</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="dd/mm/yy\ h:mm;@"/>
   </numFmts>
@@ -170,12 +182,36 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -190,7 +226,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -201,6 +237,10 @@
     <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -505,10 +545,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H20"/>
+  <dimension ref="A1:H22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -549,7 +589,7 @@
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="4">
+      <c r="A2" s="6">
         <v>1</v>
       </c>
       <c r="B2" t="s">
@@ -564,11 +604,13 @@
       <c r="E2" s="3">
         <v>42294.875</v>
       </c>
-      <c r="F2" s="3"/>
+      <c r="F2" s="3">
+        <v>42295.041666666664</v>
+      </c>
       <c r="H2" s="5"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="4">
+      <c r="A3" s="6">
         <v>2</v>
       </c>
       <c r="B3" t="s">
@@ -583,11 +625,13 @@
       <c r="E3" s="3">
         <v>42291.916666666664</v>
       </c>
-      <c r="F3" s="3"/>
+      <c r="F3" s="3">
+        <v>42291.833333333336</v>
+      </c>
       <c r="H3" s="5"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="4">
+      <c r="A4" s="6">
         <v>3</v>
       </c>
       <c r="B4" t="s">
@@ -602,11 +646,13 @@
       <c r="E4" s="3">
         <v>42295.583333333336</v>
       </c>
-      <c r="F4" s="3"/>
+      <c r="F4" s="3">
+        <v>42294.854166666664</v>
+      </c>
       <c r="H4" s="5"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="4">
+      <c r="A5" s="9">
         <v>4</v>
       </c>
       <c r="B5" t="s">
@@ -621,7 +667,7 @@
       <c r="H5" s="5"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="4">
+      <c r="A6" s="6">
         <v>5</v>
       </c>
       <c r="B6" t="s">
@@ -633,10 +679,15 @@
       <c r="E6" s="3">
         <v>42293.833333333336</v>
       </c>
+      <c r="F6" s="3">
+        <v>42294.75</v>
+      </c>
       <c r="H6" s="5"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="4"/>
+      <c r="A7" s="8">
+        <v>6</v>
+      </c>
       <c r="B7" t="s">
         <v>31</v>
       </c>
@@ -646,11 +697,14 @@
       <c r="E7" s="3">
         <v>42295.541666666664</v>
       </c>
+      <c r="G7" t="s">
+        <v>48</v>
+      </c>
       <c r="H7" s="5"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="4">
-        <v>6</v>
+      <c r="A8" s="6">
+        <v>7</v>
       </c>
       <c r="B8" t="s">
         <v>21</v>
@@ -661,12 +715,14 @@
       <c r="E8" s="3">
         <v>42294.958333333336</v>
       </c>
-      <c r="F8" s="3"/>
+      <c r="F8" s="3">
+        <v>42294.954861111109</v>
+      </c>
       <c r="H8" s="5"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="4">
-        <v>7</v>
+      <c r="A9" s="6">
+        <v>8</v>
       </c>
       <c r="B9" t="s">
         <v>22</v>
@@ -677,12 +733,14 @@
       <c r="E9" s="3">
         <v>42294.958333333336</v>
       </c>
-      <c r="F9" s="3"/>
+      <c r="F9" s="3">
+        <v>42294.954861111109</v>
+      </c>
       <c r="H9" s="5"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="4">
-        <v>8</v>
+      <c r="A10" s="6">
+        <v>9</v>
       </c>
       <c r="B10" t="s">
         <v>23</v>
@@ -696,12 +754,14 @@
       <c r="E10" s="3">
         <v>42292.833333333336</v>
       </c>
-      <c r="F10" s="3"/>
+      <c r="F10" s="3">
+        <v>42292.708333333336</v>
+      </c>
       <c r="H10" s="5"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="4">
-        <v>9</v>
+      <c r="A11" s="6">
+        <v>10</v>
       </c>
       <c r="B11" t="s">
         <v>28</v>
@@ -712,7 +772,9 @@
       <c r="E11" s="3">
         <v>42294.833333333336</v>
       </c>
-      <c r="F11" s="3"/>
+      <c r="F11" s="3">
+        <v>42295.8125</v>
+      </c>
       <c r="H11" s="5"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
@@ -726,92 +788,133 @@
       <c r="E12" s="3"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="4"/>
+      <c r="A13" s="7"/>
       <c r="B13" t="s">
         <v>33</v>
       </c>
       <c r="C13" t="s">
         <v>41</v>
       </c>
-      <c r="E13" s="3"/>
+      <c r="E13" s="3">
+        <v>42295.999305555553</v>
+      </c>
       <c r="H13" s="5"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="4"/>
+      <c r="A14" s="7"/>
       <c r="B14" t="s">
         <v>34</v>
       </c>
       <c r="C14" t="s">
         <v>41</v>
       </c>
-      <c r="E14" s="3"/>
+      <c r="E14" s="3">
+        <v>42295.999305555553</v>
+      </c>
       <c r="H14" s="5"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="4"/>
+      <c r="A15" s="7"/>
       <c r="B15" t="s">
         <v>35</v>
       </c>
       <c r="C15" t="s">
         <v>45</v>
       </c>
-      <c r="E15" s="3"/>
+      <c r="E15" s="3">
+        <v>42295.999305497688</v>
+      </c>
       <c r="H15" s="5"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" s="4"/>
+      <c r="A16" s="7"/>
       <c r="B16" t="s">
         <v>36</v>
       </c>
       <c r="C16" t="s">
         <v>42</v>
       </c>
-      <c r="E16" s="3"/>
+      <c r="E16" s="3">
+        <v>42295.999305497688</v>
+      </c>
       <c r="H16" s="5"/>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" s="4"/>
+      <c r="A17" s="7"/>
       <c r="B17" t="s">
         <v>37</v>
       </c>
       <c r="C17" t="s">
         <v>44</v>
       </c>
-      <c r="E17" s="3"/>
+      <c r="E17" s="3">
+        <v>42295.999305497688</v>
+      </c>
       <c r="H17" s="5"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" s="4"/>
+      <c r="A18" s="7"/>
       <c r="B18" t="s">
         <v>38</v>
       </c>
       <c r="C18" t="s">
         <v>43</v>
       </c>
-      <c r="E18" s="3"/>
+      <c r="E18" s="3">
+        <v>42295.999305497688</v>
+      </c>
       <c r="H18" s="5"/>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19" s="4"/>
+      <c r="A19" s="7"/>
       <c r="B19" t="s">
         <v>39</v>
       </c>
       <c r="C19" t="s">
         <v>45</v>
       </c>
-      <c r="E19" s="3"/>
+      <c r="E19" s="3">
+        <v>42295.999305497688</v>
+      </c>
       <c r="H19" s="5"/>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20" s="4"/>
+      <c r="A20" s="7"/>
       <c r="B20" t="s">
         <v>40</v>
       </c>
       <c r="C20" t="s">
         <v>44</v>
       </c>
-      <c r="E20" s="3"/>
+      <c r="E20" s="3">
+        <v>42295.999305497688</v>
+      </c>
       <c r="H20" s="5"/>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" s="7">
+        <v>11</v>
+      </c>
+      <c r="B21" t="s">
+        <v>46</v>
+      </c>
+      <c r="C21" t="s">
+        <v>47</v>
+      </c>
+      <c r="E21" s="3">
+        <v>42295.993055555555</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>12</v>
+      </c>
+      <c r="B22" t="s">
+        <v>49</v>
+      </c>
+      <c r="C22" t="s">
+        <v>20</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Week7. Final_requirments/Assignment7.xlsx
+++ b/Week7. Final_requirments/Assignment7.xlsx
@@ -226,7 +226,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -241,6 +241,9 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -548,7 +551,7 @@
   <dimension ref="A1:H22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -607,7 +610,9 @@
       <c r="F2" s="3">
         <v>42295.041666666664</v>
       </c>
-      <c r="H2" s="5"/>
+      <c r="H2" s="10">
+        <v>0.8</v>
+      </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="6">
@@ -628,7 +633,9 @@
       <c r="F3" s="3">
         <v>42291.833333333336</v>
       </c>
-      <c r="H3" s="5"/>
+      <c r="H3" s="10">
+        <v>1</v>
+      </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="6">
@@ -649,7 +656,9 @@
       <c r="F4" s="3">
         <v>42294.854166666664</v>
       </c>
-      <c r="H4" s="5"/>
+      <c r="H4" s="10">
+        <v>1</v>
+      </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="9">
@@ -664,7 +673,9 @@
       <c r="E5" s="3">
         <v>42292.833333333336</v>
       </c>
-      <c r="H5" s="5"/>
+      <c r="H5" s="10">
+        <v>1</v>
+      </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="6">
@@ -682,7 +693,9 @@
       <c r="F6" s="3">
         <v>42294.75</v>
       </c>
-      <c r="H6" s="5"/>
+      <c r="H6" s="10">
+        <v>1</v>
+      </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="8">
@@ -700,7 +713,9 @@
       <c r="G7" t="s">
         <v>48</v>
       </c>
-      <c r="H7" s="5"/>
+      <c r="H7" s="10">
+        <v>0</v>
+      </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="6">
@@ -718,7 +733,9 @@
       <c r="F8" s="3">
         <v>42294.954861111109</v>
       </c>
-      <c r="H8" s="5"/>
+      <c r="H8" s="10">
+        <v>1</v>
+      </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="6">
@@ -736,7 +753,9 @@
       <c r="F9" s="3">
         <v>42294.954861111109</v>
       </c>
-      <c r="H9" s="5"/>
+      <c r="H9" s="10">
+        <v>1</v>
+      </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="6">
@@ -757,7 +776,9 @@
       <c r="F10" s="3">
         <v>42292.708333333336</v>
       </c>
-      <c r="H10" s="5"/>
+      <c r="H10" s="10">
+        <v>1</v>
+      </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="6">
@@ -775,7 +796,9 @@
       <c r="F11" s="3">
         <v>42295.8125</v>
       </c>
-      <c r="H11" s="5"/>
+      <c r="H11" s="10">
+        <v>1</v>
+      </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="4"/>

--- a/Week7. Final_requirments/Assignment7.xlsx
+++ b/Week7. Final_requirments/Assignment7.xlsx
@@ -236,12 +236,14 @@
     </xf>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -551,7 +553,7 @@
   <dimension ref="A1:H22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -562,7 +564,7 @@
     <col min="5" max="5" width="15.28515625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="21.5703125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="52.85546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="37.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="37.42578125" style="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
@@ -587,12 +589,12 @@
       <c r="G1" t="s">
         <v>13</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="10" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="6">
+      <c r="A2" s="5">
         <v>1</v>
       </c>
       <c r="B2" t="s">
@@ -610,12 +612,12 @@
       <c r="F2" s="3">
         <v>42295.041666666664</v>
       </c>
-      <c r="H2" s="10">
+      <c r="H2" s="9">
         <v>0.8</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="6">
+      <c r="A3" s="5">
         <v>2</v>
       </c>
       <c r="B3" t="s">
@@ -633,12 +635,12 @@
       <c r="F3" s="3">
         <v>42291.833333333336</v>
       </c>
-      <c r="H3" s="10">
+      <c r="H3" s="9">
         <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="6">
+      <c r="A4" s="5">
         <v>3</v>
       </c>
       <c r="B4" t="s">
@@ -656,12 +658,12 @@
       <c r="F4" s="3">
         <v>42294.854166666664</v>
       </c>
-      <c r="H4" s="10">
+      <c r="H4" s="9">
         <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="9">
+      <c r="A5" s="8">
         <v>4</v>
       </c>
       <c r="B5" t="s">
@@ -673,12 +675,12 @@
       <c r="E5" s="3">
         <v>42292.833333333336</v>
       </c>
-      <c r="H5" s="10">
+      <c r="H5" s="9">
         <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="6">
+      <c r="A6" s="5">
         <v>5</v>
       </c>
       <c r="B6" t="s">
@@ -693,12 +695,12 @@
       <c r="F6" s="3">
         <v>42294.75</v>
       </c>
-      <c r="H6" s="10">
+      <c r="H6" s="9">
         <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="8">
+      <c r="A7" s="7">
         <v>6</v>
       </c>
       <c r="B7" t="s">
@@ -713,12 +715,12 @@
       <c r="G7" t="s">
         <v>48</v>
       </c>
-      <c r="H7" s="10">
+      <c r="H7" s="9">
         <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="6">
+      <c r="A8" s="5">
         <v>7</v>
       </c>
       <c r="B8" t="s">
@@ -733,12 +735,12 @@
       <c r="F8" s="3">
         <v>42294.954861111109</v>
       </c>
-      <c r="H8" s="10">
+      <c r="H8" s="9">
         <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="6">
+      <c r="A9" s="5">
         <v>8</v>
       </c>
       <c r="B9" t="s">
@@ -753,12 +755,12 @@
       <c r="F9" s="3">
         <v>42294.954861111109</v>
       </c>
-      <c r="H9" s="10">
+      <c r="H9" s="9">
         <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="6">
+      <c r="A10" s="5">
         <v>9</v>
       </c>
       <c r="B10" t="s">
@@ -776,12 +778,12 @@
       <c r="F10" s="3">
         <v>42292.708333333336</v>
       </c>
-      <c r="H10" s="10">
+      <c r="H10" s="9">
         <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="6">
+      <c r="A11" s="5">
         <v>10</v>
       </c>
       <c r="B11" t="s">
@@ -796,7 +798,7 @@
       <c r="F11" s="3">
         <v>42295.8125</v>
       </c>
-      <c r="H11" s="10">
+      <c r="H11" s="9">
         <v>1</v>
       </c>
     </row>
@@ -811,7 +813,7 @@
       <c r="E12" s="3"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="7"/>
+      <c r="A13" s="6"/>
       <c r="B13" t="s">
         <v>33</v>
       </c>
@@ -821,10 +823,12 @@
       <c r="E13" s="3">
         <v>42295.999305555553</v>
       </c>
-      <c r="H13" s="5"/>
+      <c r="H13" s="9">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="7"/>
+      <c r="A14" s="6"/>
       <c r="B14" t="s">
         <v>34</v>
       </c>
@@ -834,10 +838,12 @@
       <c r="E14" s="3">
         <v>42295.999305555553</v>
       </c>
-      <c r="H14" s="5"/>
+      <c r="H14" s="9">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="7"/>
+      <c r="A15" s="6"/>
       <c r="B15" t="s">
         <v>35</v>
       </c>
@@ -847,10 +853,12 @@
       <c r="E15" s="3">
         <v>42295.999305497688</v>
       </c>
-      <c r="H15" s="5"/>
+      <c r="H15" s="9">
+        <v>0</v>
+      </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" s="7"/>
+      <c r="A16" s="6"/>
       <c r="B16" t="s">
         <v>36</v>
       </c>
@@ -860,10 +868,12 @@
       <c r="E16" s="3">
         <v>42295.999305497688</v>
       </c>
-      <c r="H16" s="5"/>
+      <c r="H16" s="9">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" s="7"/>
+      <c r="A17" s="6"/>
       <c r="B17" t="s">
         <v>37</v>
       </c>
@@ -873,10 +883,12 @@
       <c r="E17" s="3">
         <v>42295.999305497688</v>
       </c>
-      <c r="H17" s="5"/>
+      <c r="H17" s="9">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" s="7"/>
+      <c r="A18" s="6"/>
       <c r="B18" t="s">
         <v>38</v>
       </c>
@@ -886,10 +898,12 @@
       <c r="E18" s="3">
         <v>42295.999305497688</v>
       </c>
-      <c r="H18" s="5"/>
+      <c r="H18" s="9">
+        <v>0</v>
+      </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19" s="7"/>
+      <c r="A19" s="6"/>
       <c r="B19" t="s">
         <v>39</v>
       </c>
@@ -899,10 +913,12 @@
       <c r="E19" s="3">
         <v>42295.999305497688</v>
       </c>
-      <c r="H19" s="5"/>
+      <c r="H19" s="9">
+        <v>0</v>
+      </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20" s="7"/>
+      <c r="A20" s="6"/>
       <c r="B20" t="s">
         <v>40</v>
       </c>
@@ -912,10 +928,12 @@
       <c r="E20" s="3">
         <v>42295.999305497688</v>
       </c>
-      <c r="H20" s="5"/>
+      <c r="H20" s="9">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21" s="7">
+      <c r="A21" s="6">
         <v>11</v>
       </c>
       <c r="B21" t="s">
@@ -926,6 +944,9 @@
       </c>
       <c r="E21" s="3">
         <v>42295.993055555555</v>
+      </c>
+      <c r="H21" s="9">
+        <v>0.25</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
